--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Итог</t>
   </si>
   <si>
-    <t xml:space="preserve">Всего авто 5, из них 2 Газель, 3 Ларгус</t>
+    <t xml:space="preserve">{{EventsSummary}}</t>
   </si>
   <si>
     <t xml:space="preserve">                 Передача</t>
@@ -618,7 +618,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -54,7 +54,7 @@
     <t xml:space="preserve">{{item.Id}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.DowntimeStartedAt.ToString("dd.MM.yyyy")}}</t>
+    <t xml:space="preserve">{{item.DowntimeStartedAtString}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.CarTypeWithGeographicalGroup}}</t>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">{{item.TimeAndBreakdownReason}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.PlannedReturnToLineDate.ToString("dd.MM.yyyy")}}</t>
+    <t xml:space="preserve">{{item.PlannedReturnToLineDateString}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.PlannedReturnToLineDateAndReschedulingReason}}</t>
@@ -618,7 +618,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">№ п/п</t>
   </si>
   <si>
-    <t xml:space="preserve">дата начала простоя</t>
+    <t xml:space="preserve">Дата начала простоя</t>
   </si>
   <si>
     <t xml:space="preserve">Тип авто</t>
@@ -42,13 +42,13 @@
     <t xml:space="preserve">Госномер</t>
   </si>
   <si>
-    <t xml:space="preserve">время / описание поломки</t>
+    <t xml:space="preserve">Время / описание поломки</t>
   </si>
   <si>
     <t xml:space="preserve">Планируемая дата выпуска автомобиля на линию</t>
   </si>
   <si>
-    <t xml:space="preserve">планируемая дата выпуска автомобиля на линию/ основания переноса даты</t>
+    <t xml:space="preserve">Планируемая дата выпуска автомобиля на линию/ основания переноса даты</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.Id}}</t>
@@ -273,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,11 +331,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -618,7 +622,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,7 +713,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -718,31 +722,31 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="12"/>
@@ -767,7 +771,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
@@ -790,31 +794,31 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="15"/>
@@ -825,7 +829,7 @@
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="8" t="s">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -167,11 +167,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <b val="true"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -366,7 +367,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -622,7 +623,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -829,7 +830,7 @@
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -844,6 +845,15 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="23"/>
     </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Планируемая дата выпуска автомобиля на линию</t>
   </si>
   <si>
-    <t xml:space="preserve">Планируемая дата выпуска автомобиля на линию/ основания переноса даты</t>
+    <t xml:space="preserve">Основания переноса даты</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.Id}}</t>
@@ -367,7 +367,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -623,7 +623,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,12 +845,6 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="23"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="CarReceptionRows" vbProcedure="false">Лист1!$A$14:$E$15</definedName>
-    <definedName function="false" hidden="false" name="CarTransferRows" vbProcedure="false">Лист1!$A$9:$E$10</definedName>
+    <definedName function="false" hidden="false" name="CarReceptionRows" vbProcedure="false">Лист1!$A$15:$E$16</definedName>
+    <definedName function="false" hidden="false" name="CarTransferRows" vbProcedure="false">Лист1!$A$10:$E$11</definedName>
     <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$3:$G$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t xml:space="preserve">Отчет по простою ЕЖЕДНЕВНЫЙ от {{CreatedAt.ToString("dd.MM.yyyy")}}</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">{{EventsSummary}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Детализация простоя </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{EventsSummaryDetails}}</t>
   </si>
   <si>
     <t xml:space="preserve">                 Передача</t>
@@ -150,11 +156,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -274,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,12 +332,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -623,7 +632,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -712,9 +721,13 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -723,66 +736,66 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="16"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
@@ -795,61 +808,70 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="B14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="E14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="23"/>
-    </row>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="24"/>
+    </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -868,8 +890,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vodovoz\repo\Vodovoz-01\Source\Applications\Desktop\Vodovoz\bin\DebugWin\Reports\Logistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lfey\source\repos\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228A7BA-E0B7-416D-9930-DBFD8DF1386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61996825-A060-495F-9078-D4CEED3F51A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15900" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="CarReceptionRows">Лист1!$A$15:$E$16</definedName>
     <definedName name="CarTransferRows">Лист1!$A$10:$E$11</definedName>
-    <definedName name="Rows">Лист1!$A$3:$G$4</definedName>
+    <definedName name="Rows">Лист1!$A$3:$H$4</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>№ п/п</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Отчет по простою ЕЖЕДНЕВНЫЙ от {{CreatedAt.ToString("dd.MM.yyyy")}}, количество дней простоя {{CountDays}}</t>
+  </si>
+  <si>
+    <t>Зона ответственности</t>
+  </si>
+  <si>
+    <t>{{item.AreaOfResponsibility}}</t>
   </si>
 </sst>
 </file>
@@ -589,19 +595,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="8" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="6" width="26" customWidth="1"/>
+    <col min="7" max="9" width="54.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -610,9 +618,10 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -629,13 +638,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -651,21 +663,25 @@
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -678,8 +694,9 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
@@ -692,8 +709,9 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="11"/>
@@ -702,8 +720,9 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
@@ -714,8 +733,9 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>0</v>
       </c>
@@ -731,11 +751,12 @@
       <c r="E9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -751,31 +772,34 @@
       <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="11"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
@@ -783,11 +807,12 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="11"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>0</v>
       </c>
@@ -806,8 +831,9 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -826,26 +852,27 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="I15" s="15"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="22"/>
     </row>
-    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:E8"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lfey\source\repos\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61996825-A060-495F-9078-D4CEED3F51A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB6F51-7EE3-4B28-94E3-AD0017EA3A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15900" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28620" yWindow="16155" windowWidth="28725" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lfey\source\repos\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB6F51-7EE3-4B28-94E3-AD0017EA3A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696CBE9-908E-48DD-A5DF-C58C2CD35045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28620" yWindow="16155" windowWidth="28725" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15900" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>Зона ответственности</t>
   </si>
   <si>
-    <t>{{item.AreaOfResponsibility}}</t>
+    <t>{{item.AreasOfResponsibilityShortNames}}</t>
   </si>
 </sst>
 </file>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/CarIsNotAtLineReport.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lfey\source\repos\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyWorkRepos\Rep3\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F696CBE9-908E-48DD-A5DF-C58C2CD35045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67726415-CD44-4CA2-8486-2A7F55FDD82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15900" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="2340" windowWidth="32625" windowHeight="17850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CarReceptionRows">Лист1!$A$15:$E$16</definedName>
-    <definedName name="CarTransferRows">Лист1!$A$10:$E$11</definedName>
-    <definedName name="Rows">Лист1!$A$3:$H$4</definedName>
+    <definedName name="CarReceptionRows">Лист1!$A$15:$F$16</definedName>
+    <definedName name="CarTransferRows">Лист1!$A$10:$F$11</definedName>
+    <definedName name="Rows">Лист1!$A$3:$I$4</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>№ п/п</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>{{item.AreasOfResponsibilityShortNames}}</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>{{item.CarOwnType}}</t>
   </si>
 </sst>
 </file>
@@ -595,33 +601,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="6" width="26" customWidth="1"/>
-    <col min="7" max="9" width="54.54296875" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="7" width="26" customWidth="1"/>
+    <col min="8" max="10" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -632,22 +640,25 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -657,31 +668,34 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="11"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -695,8 +709,9 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
@@ -710,8 +725,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="11"/>
@@ -721,8 +737,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
@@ -730,12 +747,13 @@
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>0</v>
       </c>
@@ -745,18 +763,21 @@
       <c r="C9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -766,40 +787,45 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
@@ -807,12 +833,13 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="11"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>0</v>
       </c>
@@ -822,18 +849,21 @@
       <c r="C14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -843,40 +873,44 @@
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="J15" s="15"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C32" s="22"/>
-    </row>
-    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
